--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AR2_50_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,18 +417,18 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="B2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="B3">
         <v>2008</v>
@@ -436,61 +436,46 @@
       <c r="D3">
         <v>2009</v>
       </c>
-      <c r="E3">
-        <v>-0.7258201309573775</v>
-      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="B4">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D4">
-        <v>2009</v>
-      </c>
-      <c r="E4">
-        <v>-0.8922816569862713</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="B5">
         <v>2009</v>
       </c>
       <c r="C5">
-        <v>-1.324983933426882</v>
+        <v>-1.324983933426893</v>
       </c>
       <c r="D5">
         <v>2010</v>
       </c>
-      <c r="E5">
-        <v>-0.4252238776383699</v>
-      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="B6">
-        <v>2009</v>
-      </c>
-      <c r="C6">
-        <v>-1.324983933426882</v>
+        <v>2010</v>
       </c>
       <c r="D6">
-        <v>2010</v>
-      </c>
-      <c r="E6">
-        <v>-0.0806988647449991</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="B7">
         <v>2010</v>
@@ -501,64 +486,46 @@
       <c r="D7">
         <v>2011</v>
       </c>
-      <c r="E7">
-        <v>-0.608538493861166</v>
-      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="B8">
-        <v>2010</v>
-      </c>
-      <c r="C8">
-        <v>-0.3900454704678369</v>
+        <v>2011</v>
       </c>
       <c r="D8">
-        <v>2011</v>
-      </c>
-      <c r="E8">
-        <v>-0.3552279522900159</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="B9">
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>-0.2995848153489522</v>
+        <v>-0.29958481534893</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
-      <c r="E9">
-        <v>-0.007565898326467035</v>
-      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="B10">
-        <v>2011</v>
-      </c>
-      <c r="C10">
-        <v>-0.2995848153489522</v>
+        <v>2012</v>
       </c>
       <c r="D10">
-        <v>2012</v>
-      </c>
-      <c r="E10">
-        <v>-0.1826650432039445</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="B11">
         <v>2012</v>
@@ -570,29 +537,29 @@
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>0.07493742497184375</v>
+        <v>-0.4223781730902543</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="B12">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C12">
-        <v>-0.2075757021743008</v>
+        <v>-0.06726240733891942</v>
       </c>
       <c r="D12">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E12">
-        <v>0.09992491247496904</v>
+        <v>-0.4774698422615242</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="B13">
         <v>2013</v>
@@ -604,29 +571,29 @@
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>-0.02565626552746281</v>
+        <v>-0.3577371449824729</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="B14">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C14">
-        <v>0.124712275190686</v>
+        <v>-0.3584575688954428</v>
       </c>
       <c r="D14">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E14">
-        <v>-0.2256049529964055</v>
+        <v>-0.4112436562971</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="B15">
         <v>2014</v>
@@ -638,29 +605,29 @@
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>0.05470007129930732</v>
+        <v>-0.2877346565283379</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="B16">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C16">
-        <v>-0.255298189276465</v>
+        <v>-0.009688851112665819</v>
       </c>
       <c r="D16">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E16">
-        <v>0.068498965518482</v>
+        <v>-0.3537462851234685</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="B17">
         <v>2015</v>
@@ -672,29 +639,29 @@
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>-0.1118063021044113</v>
+        <v>-0.2097319935285391</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="B18">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C18">
-        <v>0.07418514192796266</v>
+        <v>-0.1132037832954791</v>
       </c>
       <c r="D18">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E18">
-        <v>-0.1275185062600492</v>
+        <v>-0.3204027102583273</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="B19">
         <v>2016</v>
@@ -706,29 +673,29 @@
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>-0.1441854746430216</v>
+        <v>-0.3036570471216304</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="B20">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C20">
-        <v>-0.07611406013281474</v>
+        <v>-0.2638577853126156</v>
       </c>
       <c r="D20">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E20">
-        <v>-0.2221926054819634</v>
+        <v>-0.3143428957755656</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="B21">
         <v>2017</v>
@@ -740,63 +707,63 @@
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>0.09771527089190712</v>
+        <v>-0.1907914728172644</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="B22">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C22">
-        <v>-0.191300579729714</v>
+        <v>-0.05059932794906352</v>
       </c>
       <c r="D22">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E22">
-        <v>0.06531417979365184</v>
+        <v>-0.2866918525404771</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>0.1195352120703319</v>
+        <v>0.04166709579394023</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>0.08904591254175198</v>
+        <v>-0.2532926704812977</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>0.1141271696349921</v>
+        <v>0.1246424644191668</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>-0.1267333805689663</v>
+        <v>-0.1729167731976178</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="B25">
         <v>2018</v>
@@ -808,63 +775,63 @@
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>-0.1876573326314745</v>
+        <v>-0.2529765062333933</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="B26">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C26">
-        <v>0.0970330232288763</v>
+        <v>-0.567279386573194</v>
       </c>
       <c r="D26">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E26">
-        <v>-0.7845155491406741</v>
+        <v>-0.2733008487008526</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>-0.7781153598125479</v>
+        <v>-0.7671134292608239</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>-0.1254551401159709</v>
+        <v>-0.3480983700859808</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>-0.7251499616078294</v>
+        <v>-0.6865797156070164</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>-0.1802771585606822</v>
+        <v>-0.2709243735070865</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="B29">
         <v>2019</v>
@@ -876,63 +843,63 @@
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>-0.4215048939216759</v>
+        <v>-0.428077259747528</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="B30">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C30">
-        <v>-0.7407518902333265</v>
+        <v>-0.6415172061831176</v>
       </c>
       <c r="D30">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E30">
-        <v>-0.6120620921455822</v>
+        <v>-0.3202690301181033</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>-0.1253648379836103</v>
+        <v>-0.2043373675692961</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>0.1494302794222913</v>
+        <v>-0.1872494743064723</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>0.2662518592309704</v>
+        <v>0.3056679541520335</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>-0.7718622268289566</v>
+        <v>-0.02738999065564629</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="B33">
         <v>2020</v>
@@ -944,63 +911,63 @@
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>0.2818044080198812</v>
+        <v>-0.2112001730687485</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="B34">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C34">
-        <v>0.3056679541520335</v>
+        <v>-0.6729198470149966</v>
       </c>
       <c r="D34">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E34">
-        <v>-0.05370931890721353</v>
+        <v>-0.1659341199724107</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-0.9737659111719199</v>
+        <v>-0.8080927309597863</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>-0.8257694986581909</v>
+        <v>-0.1644030883838465</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-0.798036187070017</v>
+        <v>-1.388491535160907</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>0.025374137035028</v>
+        <v>-2.365218846580541</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="B37">
         <v>2021</v>
@@ -1012,63 +979,63 @@
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>-1.193502734053931</v>
+        <v>-1.701252732314051</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="B38">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C38">
-        <v>-1.388491535160907</v>
+        <v>-1.748780309677478</v>
       </c>
       <c r="D38">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E38">
-        <v>-2.110140541019756</v>
+        <v>-0.3138757159763084</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>-1.860512579858153</v>
+        <v>-1.697148566375528</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>-0.2290505252614206</v>
+        <v>-0.2339923140600275</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>-1.655159161221598</v>
+        <v>-1.678482969789596</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>0.1441694350656331</v>
+        <v>-0.1583814731481836</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="B41">
         <v>2022</v>
@@ -1080,63 +1047,63 @@
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>0.1047262454232811</v>
+        <v>-0.6241481568271312</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="B42">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C42">
-        <v>-1.678482969789596</v>
+        <v>-0.6410531931378527</v>
       </c>
       <c r="D42">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E42">
-        <v>-0.4515441491209748</v>
+        <v>-0.3624456929795739</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-0.5707406213996236</v>
+        <v>-0.6247846736575413</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>0.0732352941048342</v>
+        <v>-0.3554771869619944</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-0.5990045920093001</v>
+        <v>-0.5999457276250508</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>-0.09594573104433346</v>
+        <v>-0.2733934973402352</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="B45">
         <v>2023</v>
@@ -1148,63 +1115,63 @@
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>0.06001813511820053</v>
+        <v>-0.2119687890143274</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="B46">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C46">
-        <v>-0.5999457276250508</v>
+        <v>-0.1344629014043419</v>
       </c>
       <c r="D46">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E46">
-        <v>-0.0412020681479941</v>
+        <v>-0.356174448876545</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-0.03960232994498769</v>
+        <v>-0.09040308684795662</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>0.07100632971737131</v>
+        <v>-0.3159097170635006</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.06180454587446649</v>
+        <v>-0.05499271238530445</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>-0.08108884376691883</v>
+        <v>-0.1967532854572851</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="B49">
         <v>2024</v>
@@ -1216,75 +1183,58 @@
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.02553660812301128</v>
+        <v>-0.06564014165270082</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="B50">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C50">
-        <v>-0.05499271238530445</v>
+        <v>0.393650197209916</v>
       </c>
       <c r="D50">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E50">
-        <v>0.09051274179980862</v>
+        <v>-0.2112949500827632</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.4705817098730858</v>
+        <v>0.3813481955213138</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>0.2383054438446441</v>
+        <v>-0.2523778956734835</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45800</v>
+        <v>45891</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.4327853568336204</v>
+        <v>0.4335297397760618</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>0.2080746432969294</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="2">
-        <v>45891</v>
-      </c>
-      <c r="B53">
-        <v>2025</v>
-      </c>
-      <c r="C53">
-        <v>0.4335297397760618</v>
-      </c>
-      <c r="D53">
-        <v>2026</v>
-      </c>
-      <c r="E53">
-        <v>0.216636701550188</v>
+        <v>-0.05771130674934177</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AR2_50_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,18 +417,21 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39583</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>-0.7015558851707571</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="D2">
-        <v>2009</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39765</v>
+        <v>39583</v>
       </c>
       <c r="B3">
         <v>2008</v>
@@ -439,802 +442,840 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39948</v>
+        <v>39765</v>
       </c>
       <c r="B4">
+        <v>2008</v>
+      </c>
+      <c r="C4">
+        <v>0.3590181115727509</v>
+      </c>
+      <c r="D4">
         <v>2009</v>
-      </c>
-      <c r="D4">
-        <v>2010</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40130</v>
+        <v>39948</v>
       </c>
       <c r="B5">
         <v>2009</v>
       </c>
-      <c r="C5">
-        <v>-1.324983933426893</v>
-      </c>
       <c r="D5">
         <v>2010</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40310</v>
+        <v>40130</v>
       </c>
       <c r="B6">
+        <v>2009</v>
+      </c>
+      <c r="C6">
+        <v>-0.01587181126743165</v>
+      </c>
+      <c r="D6">
         <v>2010</v>
-      </c>
-      <c r="D6">
-        <v>2011</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40494</v>
+        <v>40310</v>
       </c>
       <c r="B7">
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>-0.3900454704678369</v>
+        <v>0.1037184923425638</v>
       </c>
       <c r="D7">
         <v>2011</v>
       </c>
+      <c r="E7">
+        <v>0.1523866428317699</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40676</v>
+        <v>40494</v>
       </c>
       <c r="B8">
+        <v>2010</v>
+      </c>
+      <c r="C8">
+        <v>-0.02256889165885845</v>
+      </c>
+      <c r="D8">
         <v>2011</v>
       </c>
-      <c r="D8">
-        <v>2012</v>
+      <c r="E8">
+        <v>0.1850158025574977</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40862</v>
+        <v>40676</v>
       </c>
       <c r="B9">
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>-0.29958481534893</v>
+        <v>-0.3429736775751868</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
+      <c r="E9">
+        <v>-0.1149259972201833</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>41044</v>
+        <v>40862</v>
       </c>
       <c r="B10">
+        <v>2011</v>
+      </c>
+      <c r="C10">
+        <v>0.09611428386597787</v>
+      </c>
+      <c r="D10">
         <v>2012</v>
       </c>
-      <c r="D10">
-        <v>2013</v>
+      <c r="E10">
+        <v>-0.0461580488825053</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41228</v>
+        <v>41044</v>
       </c>
       <c r="B11">
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>-0.2075757021743008</v>
+        <v>-0.2064822032187164</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>-0.4223781730902543</v>
+        <v>-0.1075365560329056</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41409</v>
+        <v>41228</v>
       </c>
       <c r="B12">
+        <v>2012</v>
+      </c>
+      <c r="C12">
+        <v>-0.1827723404408288</v>
+      </c>
+      <c r="D12">
         <v>2013</v>
       </c>
-      <c r="C12">
-        <v>-0.06726240733891942</v>
-      </c>
-      <c r="D12">
-        <v>2014</v>
-      </c>
       <c r="E12">
-        <v>-0.4774698422615242</v>
+        <v>-0.1118170657869455</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41592</v>
+        <v>41409</v>
       </c>
       <c r="B13">
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>0.124712275190686</v>
+        <v>0.005797897989445744</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>-0.3577371449824729</v>
+        <v>-0.05125851421730054</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41774</v>
+        <v>41592</v>
       </c>
       <c r="B14">
+        <v>2013</v>
+      </c>
+      <c r="C14">
+        <v>-0.001350220946483294</v>
+      </c>
+      <c r="D14">
         <v>2014</v>
       </c>
-      <c r="C14">
-        <v>-0.3584575688954428</v>
-      </c>
-      <c r="D14">
-        <v>2015</v>
-      </c>
       <c r="E14">
-        <v>-0.4112436562971</v>
+        <v>-0.02003709364999384</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41957</v>
+        <v>41774</v>
       </c>
       <c r="B15">
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>-0.255298189276465</v>
+        <v>0.2273278155300318</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>-0.2877346565283379</v>
+        <v>0.001779459905826286</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>42137</v>
+        <v>41957</v>
       </c>
       <c r="B16">
+        <v>2014</v>
+      </c>
+      <c r="C16">
+        <v>-0.075754880139145</v>
+      </c>
+      <c r="D16">
         <v>2015</v>
       </c>
-      <c r="C16">
-        <v>-0.009688851112665819</v>
-      </c>
-      <c r="D16">
-        <v>2016</v>
-      </c>
       <c r="E16">
-        <v>-0.3537462851234685</v>
+        <v>-0.2383077634182995</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42321</v>
+        <v>42137</v>
       </c>
       <c r="B17">
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>0.07418514192796266</v>
+        <v>-0.2723669344146917</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>-0.2097319935285391</v>
+        <v>-0.1573879283727764</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42503</v>
+        <v>42321</v>
       </c>
       <c r="B18">
+        <v>2015</v>
+      </c>
+      <c r="C18">
+        <v>-0.5761528471665445</v>
+      </c>
+      <c r="D18">
         <v>2016</v>
       </c>
-      <c r="C18">
-        <v>-0.1132037832954791</v>
-      </c>
-      <c r="D18">
-        <v>2017</v>
-      </c>
       <c r="E18">
-        <v>-0.3204027102583273</v>
+        <v>-0.2318455351884685</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42689</v>
+        <v>42503</v>
       </c>
       <c r="B19">
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>-0.07611406013281474</v>
+        <v>-0.05011389829933099</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>-0.3036570471216304</v>
+        <v>-0.1100689213476058</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42867</v>
+        <v>42689</v>
       </c>
       <c r="B20">
+        <v>2016</v>
+      </c>
+      <c r="C20">
+        <v>-0.2011999787958185</v>
+      </c>
+      <c r="D20">
         <v>2017</v>
       </c>
-      <c r="C20">
-        <v>-0.2638577853126156</v>
-      </c>
-      <c r="D20">
-        <v>2018</v>
-      </c>
       <c r="E20">
-        <v>-0.3143428957755656</v>
+        <v>-0.2555440101933648</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>43053</v>
+        <v>42867</v>
       </c>
       <c r="B21">
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>-0.191300579729714</v>
+        <v>0.2788833036191596</v>
       </c>
       <c r="D21">
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>-0.1907914728172644</v>
+        <v>-0.1416348838281123</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43145</v>
+        <v>43053</v>
       </c>
       <c r="B22">
+        <v>2017</v>
+      </c>
+      <c r="C22">
+        <v>0.1213692818849532</v>
+      </c>
+      <c r="D22">
         <v>2018</v>
       </c>
-      <c r="C22">
-        <v>-0.05059932794906352</v>
-      </c>
-      <c r="D22">
-        <v>2019</v>
-      </c>
       <c r="E22">
-        <v>-0.2866918525404771</v>
+        <v>-0.06802695342326137</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43235</v>
+        <v>43145</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>0.04166709579394023</v>
+        <v>0.1319881130530609</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>-0.2532926704812977</v>
+        <v>-0.1311012291692171</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43326</v>
+        <v>43235</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>0.1246424644191668</v>
+        <v>-0.1459594536071473</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>-0.1729167731976178</v>
+        <v>-0.1825768856163368</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43418</v>
+        <v>43326</v>
       </c>
       <c r="B25">
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>0.0970330232288763</v>
+        <v>-0.003510046413479628</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>-0.2529765062333933</v>
+        <v>-0.05140618367761585</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43510</v>
+        <v>43418</v>
       </c>
       <c r="B26">
+        <v>2018</v>
+      </c>
+      <c r="C26">
+        <v>0.1493219406571766</v>
+      </c>
+      <c r="D26">
         <v>2019</v>
       </c>
-      <c r="C26">
-        <v>-0.567279386573194</v>
-      </c>
-      <c r="D26">
-        <v>2020</v>
-      </c>
       <c r="E26">
-        <v>-0.2733008487008526</v>
+        <v>0.2006993856294326</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43600</v>
+        <v>43510</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>-0.7671134292608239</v>
+        <v>0.3205506405107528</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>-0.3480983700859808</v>
+        <v>0.02707231012755162</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43691</v>
+        <v>43600</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>-0.6865797156070164</v>
+        <v>-0.2305835819295887</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>-0.2709243735070865</v>
+        <v>-0.2087674606261247</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43783</v>
+        <v>43691</v>
       </c>
       <c r="B29">
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>-0.7407518902333265</v>
+        <v>-0.3355560014489445</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>-0.428077259747528</v>
+        <v>-0.3121234745279589</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43875</v>
+        <v>43783</v>
       </c>
       <c r="B30">
+        <v>2019</v>
+      </c>
+      <c r="C30">
+        <v>-0.4278219446121612</v>
+      </c>
+      <c r="D30">
         <v>2020</v>
       </c>
-      <c r="C30">
-        <v>-0.6415172061831176</v>
-      </c>
-      <c r="D30">
-        <v>2021</v>
-      </c>
       <c r="E30">
-        <v>-0.3202690301181033</v>
+        <v>-0.5866687821558636</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43966</v>
+        <v>43875</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>-0.2043373675692961</v>
+        <v>-0.4642429512678015</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>-0.1872494743064723</v>
+        <v>-0.18419261498126</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>44068</v>
+        <v>43966</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>0.3056679541520335</v>
+        <v>-0.3292346503903532</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>-0.02738999065564629</v>
+        <v>-0.09082057608673644</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44159</v>
+        <v>44068</v>
       </c>
       <c r="B33">
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>0.3056679541520335</v>
+        <v>-0.4412356890029168</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-0.2112001730687485</v>
+        <v>-0.1505745581714235</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44251</v>
+        <v>44159</v>
       </c>
       <c r="B34">
+        <v>2020</v>
+      </c>
+      <c r="C34">
+        <v>-1.026566979837418</v>
+      </c>
+      <c r="D34">
         <v>2021</v>
       </c>
-      <c r="C34">
-        <v>-0.6729198470149966</v>
-      </c>
-      <c r="D34">
-        <v>2022</v>
-      </c>
       <c r="E34">
-        <v>-0.1659341199724107</v>
+        <v>-2.497698913894009</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44341</v>
+        <v>44251</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-0.8080927309597863</v>
+        <v>-0.4955027878269735</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>-0.1644030883838465</v>
+        <v>-0.278034778427505</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44432</v>
+        <v>44341</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-1.388491535160907</v>
+        <v>-0.05652554630790618</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>-2.365218846580541</v>
+        <v>0.149910086121019</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44525</v>
+        <v>44432</v>
       </c>
       <c r="B37">
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>-1.388491535160907</v>
+        <v>-0.04976849661378902</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>-1.701252732314051</v>
+        <v>-0.4624617512119622</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44617</v>
+        <v>44525</v>
       </c>
       <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38">
+        <v>0.3179894933462268</v>
+      </c>
+      <c r="D38">
         <v>2022</v>
       </c>
-      <c r="C38">
-        <v>-1.748780309677478</v>
-      </c>
-      <c r="D38">
-        <v>2023</v>
-      </c>
       <c r="E38">
-        <v>-0.3138757159763084</v>
+        <v>0.1527842396192636</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44706</v>
+        <v>44617</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>-1.697148566375528</v>
+        <v>0.4286822041105198</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>-0.2339923140600275</v>
+        <v>-0.07547397514037213</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44798</v>
+        <v>44706</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>-1.678482969789596</v>
+        <v>1.183936177705625</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>-0.1583814731481836</v>
+        <v>0.1147913851119675</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44890</v>
+        <v>44798</v>
       </c>
       <c r="B41">
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>-1.678482969789596</v>
+        <v>0.4784173072842179</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>-0.6241481568271312</v>
+        <v>-0.05252235973735031</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44981</v>
+        <v>44890</v>
       </c>
       <c r="B42">
+        <v>2022</v>
+      </c>
+      <c r="C42">
+        <v>0.463604920919658</v>
+      </c>
+      <c r="D42">
         <v>2023</v>
       </c>
-      <c r="C42">
-        <v>-0.6410531931378527</v>
-      </c>
-      <c r="D42">
-        <v>2024</v>
-      </c>
       <c r="E42">
-        <v>-0.3624456929795739</v>
+        <v>-0.2029074457040814</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45071</v>
+        <v>44981</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-0.6247846736575413</v>
+        <v>0.4661842108264924</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>-0.3554771869619944</v>
+        <v>-0.09280859516105355</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45163</v>
+        <v>45071</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-0.5999457276250508</v>
+        <v>0.8096199637471102</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>-0.2733934973402352</v>
+        <v>-0.08981539700775309</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45254</v>
+        <v>45163</v>
       </c>
       <c r="B45">
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-0.5999457276250508</v>
+        <v>0.4279153732809959</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>-0.2119687890143274</v>
+        <v>-0.1676828594555424</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45345</v>
+        <v>45254</v>
       </c>
       <c r="B46">
+        <v>2023</v>
+      </c>
+      <c r="C46">
+        <v>0.621639092134818</v>
+      </c>
+      <c r="D46">
         <v>2024</v>
       </c>
-      <c r="C46">
-        <v>-0.1344629014043419</v>
-      </c>
-      <c r="D46">
-        <v>2025</v>
-      </c>
       <c r="E46">
-        <v>-0.356174448876545</v>
+        <v>-0.1003146131857147</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45436</v>
+        <v>45345</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-0.09040308684795662</v>
+        <v>-0.438218070630314</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>-0.3159097170635006</v>
+        <v>-0.08844532960863294</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45534</v>
+        <v>45436</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.05499271238530445</v>
+        <v>-1.085560181261136</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>-0.1967532854572851</v>
+        <v>-0.09271976299123352</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45618</v>
+        <v>45534</v>
       </c>
       <c r="B49">
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-0.05499271238530445</v>
+        <v>-0.9378224616154895</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>-0.06564014165270082</v>
+        <v>0.0525099363110515</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45713</v>
+        <v>45618</v>
       </c>
       <c r="B50">
+        <v>2024</v>
+      </c>
+      <c r="C50">
+        <v>-0.6768900623516982</v>
+      </c>
+      <c r="D50">
         <v>2025</v>
       </c>
-      <c r="C50">
-        <v>0.393650197209916</v>
-      </c>
-      <c r="D50">
-        <v>2026</v>
-      </c>
       <c r="E50">
-        <v>-0.2112949500827632</v>
+        <v>0.6778422458094902</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45800</v>
+        <v>45713</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.3813481955213138</v>
+        <v>1.664803039325657</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>-0.2523778956734835</v>
+        <v>0.06351685110044247</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45891</v>
+        <v>45800</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.4335297397760618</v>
+        <v>0.5641976336596244</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>-0.05771130674934177</v>
+        <v>-0.1178589452312528</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B53">
+        <v>2025</v>
+      </c>
+      <c r="C53">
+        <v>1.136769786738334</v>
+      </c>
+      <c r="D53">
+        <v>2026</v>
+      </c>
+      <c r="E53">
+        <v>0.06731424764072624</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AR2_50_9_full.xlsx
@@ -929,13 +929,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-0.4412356890029168</v>
+        <v>-0.3695630056286925</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-0.1505745581714235</v>
+        <v>-7.030524572515517E-05</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -952,7 +952,7 @@
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>-2.497698913894009</v>
+        <v>-1.192393303545591</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -963,13 +963,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-0.4955027878269735</v>
+        <v>-0.6059768475674909</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>-0.278034778427505</v>
+        <v>-0.3011419025451434</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -980,13 +980,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-0.05652554630790618</v>
+        <v>-0.2970982048608128</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>0.149910086121019</v>
+        <v>-0.07610064641830894</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -997,13 +997,13 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>-0.04976849661378902</v>
+        <v>0.3934374973223465</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>-0.4624617512119622</v>
+        <v>0.3118176492880931</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1020,7 +1020,7 @@
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>0.1527842396192636</v>
+        <v>0.2504325414754982</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1031,13 +1031,13 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>0.4286822041105198</v>
+        <v>0.2712080204189338</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>-0.07547397514037213</v>
+        <v>-0.05021256318447076</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1048,13 +1048,13 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>1.183936177705625</v>
+        <v>0.9873422665386489</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>0.1147913851119675</v>
+        <v>0.03847099707416923</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1065,13 +1065,13 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>0.4784173072842179</v>
+        <v>0.4625436162124519</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>-0.05252235973735031</v>
+        <v>-0.07481135892478674</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1088,7 +1088,7 @@
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>-0.2029074457040814</v>
+        <v>-0.01166369079491636</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1099,13 +1099,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>0.4661842108264924</v>
+        <v>0.4798376613666333</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>-0.09280859516105355</v>
+        <v>-0.1060546019570063</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1116,13 +1116,13 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>0.8096199637471102</v>
+        <v>0.7605498842334635</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>-0.08981539700775309</v>
+        <v>-0.05891731780507392</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1133,13 +1133,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>0.4279153732809959</v>
+        <v>0.4458909783649156</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>-0.1676828594555424</v>
+        <v>-0.1556869089359258</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1156,7 +1156,7 @@
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>-0.1003146131857147</v>
+        <v>-0.1830321574487703</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1167,13 +1167,13 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-0.438218070630314</v>
+        <v>-0.3486394561975747</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>-0.08844532960863294</v>
+        <v>-0.09266255584036154</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1184,13 +1184,13 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-1.085560181261136</v>
+        <v>-1.000055557176827</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>-0.09271976299123352</v>
+        <v>-0.08363380984689472</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1201,13 +1201,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-0.9378224616154895</v>
+        <v>-0.9698273264413304</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.0525099363110515</v>
+        <v>-0.02526714717144829</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1224,7 +1224,7 @@
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>0.6778422458094902</v>
+        <v>0.4053576788542124</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1235,13 +1235,13 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>1.664803039325657</v>
+        <v>1.108275029474215</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>0.06351685110044247</v>
+        <v>-0.05881133788824267</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1252,13 +1252,13 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.5641976336596244</v>
+        <v>0.5724023773773013</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>-0.1178589452312528</v>
+        <v>-0.1105236148505218</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1269,13 +1269,13 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>1.136769786738334</v>
+        <v>1.137079304717759</v>
       </c>
       <c r="D53">
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>0.06731424764072624</v>
+        <v>0.07906106903616816</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AR2_50_9_full.xlsx
@@ -422,9 +422,6 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>-0.7015558851707571</v>
-      </c>
       <c r="D2">
         <v>2008</v>
       </c>
@@ -447,9 +444,6 @@
       <c r="B4">
         <v>2008</v>
       </c>
-      <c r="C4">
-        <v>0.3590181115727509</v>
-      </c>
       <c r="D4">
         <v>2009</v>
       </c>
@@ -473,7 +467,7 @@
         <v>2009</v>
       </c>
       <c r="C6">
-        <v>-0.01587181126743165</v>
+        <v>-0.01587181126744275</v>
       </c>
       <c r="D6">
         <v>2010</v>
@@ -487,13 +481,13 @@
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>0.1037184923425638</v>
+        <v>0.103718492342586</v>
       </c>
       <c r="D7">
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>0.1523866428317699</v>
+        <v>0.1523866428317477</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -504,13 +498,13 @@
         <v>2010</v>
       </c>
       <c r="C8">
-        <v>-0.02256889165885845</v>
+        <v>-0.02256889165886955</v>
       </c>
       <c r="D8">
         <v>2011</v>
       </c>
       <c r="E8">
-        <v>0.1850158025574977</v>
+        <v>0.1850158025575199</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -527,7 +521,7 @@
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>-0.1149259972201833</v>
+        <v>-0.1149259972201611</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -538,13 +532,13 @@
         <v>2011</v>
       </c>
       <c r="C10">
-        <v>0.09611428386597787</v>
+        <v>0.09611428386595566</v>
       </c>
       <c r="D10">
         <v>2012</v>
       </c>
       <c r="E10">
-        <v>-0.0461580488825053</v>
+        <v>-0.0461580488825164</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -555,7 +549,7 @@
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>-0.2064822032187164</v>
+        <v>-0.2064822032187386</v>
       </c>
       <c r="D11">
         <v>2013</v>
@@ -595,7 +589,7 @@
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>-0.05125851421730054</v>
+        <v>-0.05125851421728944</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -606,7 +600,7 @@
         <v>2013</v>
       </c>
       <c r="C14">
-        <v>-0.001350220946483294</v>
+        <v>-0.001350220946472191</v>
       </c>
       <c r="D14">
         <v>2014</v>
@@ -629,7 +623,7 @@
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>0.001779459905826286</v>
+        <v>0.001779459905804082</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,7 +640,7 @@
         <v>2015</v>
       </c>
       <c r="E16">
-        <v>-0.2383077634182995</v>
+        <v>-0.2383077634183106</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -674,13 +668,13 @@
         <v>2015</v>
       </c>
       <c r="C18">
-        <v>-0.5761528471665445</v>
+        <v>-0.5761528471665334</v>
       </c>
       <c r="D18">
         <v>2016</v>
       </c>
       <c r="E18">
-        <v>-0.2318455351884685</v>
+        <v>-0.2318455351884796</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -691,13 +685,13 @@
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>-0.05011389829933099</v>
+        <v>-0.0501138982993421</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>-0.1100689213476058</v>
+        <v>-0.1100689213475947</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -714,7 +708,7 @@
         <v>2017</v>
       </c>
       <c r="E20">
-        <v>-0.2555440101933648</v>
+        <v>-0.2555440101933759</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -725,7 +719,7 @@
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>0.2788833036191596</v>
+        <v>0.2788833036191374</v>
       </c>
       <c r="D21">
         <v>2018</v>
@@ -759,7 +753,7 @@
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>0.1319881130530609</v>
+        <v>0.1319881130530387</v>
       </c>
       <c r="D23">
         <v>2019</v>
@@ -782,7 +776,7 @@
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>-0.1825768856163368</v>
+        <v>-0.1825768856163257</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -799,7 +793,7 @@
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>-0.05140618367761585</v>
+        <v>-0.05140618367763805</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -827,13 +821,13 @@
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>0.3205506405107528</v>
+        <v>0.320550640510775</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>0.02707231012755162</v>
+        <v>0.02707231012752942</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -844,13 +838,13 @@
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>-0.2305835819295887</v>
+        <v>-0.2305835819295776</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>-0.2087674606261247</v>
+        <v>-0.2087674606261358</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -861,7 +855,7 @@
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>-0.3355560014489445</v>
+        <v>-0.3355560014489334</v>
       </c>
       <c r="D29">
         <v>2020</v>
@@ -878,7 +872,7 @@
         <v>2019</v>
       </c>
       <c r="C30">
-        <v>-0.4278219446121612</v>
+        <v>-0.4278219446121501</v>
       </c>
       <c r="D30">
         <v>2020</v>
@@ -901,7 +895,7 @@
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>-0.18419261498126</v>
+        <v>-0.1841926149812489</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -929,13 +923,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-0.3695630056286925</v>
+        <v>-0.3695630056287147</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-7.030524572515517E-05</v>
+        <v>-7.030524571405294E-05</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -946,13 +940,13 @@
         <v>2020</v>
       </c>
       <c r="C34">
-        <v>-1.026566979837418</v>
+        <v>-1.026566979837429</v>
       </c>
       <c r="D34">
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>-1.192393303545591</v>
+        <v>-1.192393303545602</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -963,7 +957,7 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-0.6059768475674909</v>
+        <v>-0.6059768475674798</v>
       </c>
       <c r="D35">
         <v>2022</v>
@@ -980,13 +974,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-0.2970982048608128</v>
+        <v>-0.2970982048607906</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>-0.07610064641830894</v>
+        <v>-0.07610064641832004</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -997,13 +991,13 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>0.3934374973223465</v>
+        <v>0.3934374973223687</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>0.3118176492880931</v>
+        <v>0.3118176492880709</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1037,7 +1031,7 @@
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>-0.05021256318447076</v>
+        <v>-0.05021256318445966</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1048,7 +1042,7 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>0.9873422665386489</v>
+        <v>0.9873422665386711</v>
       </c>
       <c r="D40">
         <v>2023</v>
@@ -1082,7 +1076,7 @@
         <v>2022</v>
       </c>
       <c r="C42">
-        <v>0.463604920919658</v>
+        <v>0.4636049209196802</v>
       </c>
       <c r="D42">
         <v>2023</v>
@@ -1105,7 +1099,7 @@
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>-0.1060546019570063</v>
+        <v>-0.1060546019570174</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1122,7 +1116,7 @@
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>-0.05891731780507392</v>
+        <v>-0.05891731780506282</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1133,13 +1127,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>0.4458909783649156</v>
+        <v>0.4458909783648934</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>-0.1556869089359258</v>
+        <v>-0.155686908935937</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1150,13 +1144,13 @@
         <v>2023</v>
       </c>
       <c r="C46">
-        <v>0.621639092134818</v>
+        <v>0.6216390921348403</v>
       </c>
       <c r="D46">
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>-0.1830321574487703</v>
+        <v>-0.1830321574487592</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1167,7 +1161,7 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-0.3486394561975747</v>
+        <v>-0.3486394561975636</v>
       </c>
       <c r="D47">
         <v>2025</v>
@@ -1190,7 +1184,7 @@
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>-0.08363380984689472</v>
+        <v>-0.08363380984691693</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1207,7 +1201,7 @@
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>-0.02526714717144829</v>
+        <v>-0.02526714717145939</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1218,7 +1212,7 @@
         <v>2024</v>
       </c>
       <c r="C50">
-        <v>-0.6768900623516982</v>
+        <v>-0.6768900623516871</v>
       </c>
       <c r="D50">
         <v>2025</v>
@@ -1241,7 +1235,7 @@
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>-0.05881133788824267</v>
+        <v>-0.05881133788823156</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1252,7 +1246,7 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.5724023773773013</v>
+        <v>0.5724023773773235</v>
       </c>
       <c r="D52">
         <v>2026</v>
@@ -1269,7 +1263,7 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>1.137079304717759</v>
+        <v>1.137079304717736</v>
       </c>
       <c r="D53">
         <v>2026</v>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AR2_50_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1272,6 +1272,23 @@
         <v>0.07906106903616816</v>
       </c>
     </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B54">
+        <v>2025</v>
+      </c>
+      <c r="C54">
+        <v>1.049317648994741</v>
+      </c>
+      <c r="D54">
+        <v>2026</v>
+      </c>
+      <c r="E54">
+        <v>0.07146359800258573</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
